--- a/data/trans_orig/P27_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64558</v>
+        <v>64702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99225</v>
+        <v>98963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.141781379793591</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1137676881363716</v>
+        <v>0.1140202867406231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1748584518194363</v>
+        <v>0.1743978355685047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -765,19 +765,19 @@
         <v>65347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49896</v>
+        <v>49615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83492</v>
+        <v>81016</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07235593013809634</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05524813198572213</v>
+        <v>0.05493646408413564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0924479191613046</v>
+        <v>0.08970604525432717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -786,19 +786,19 @@
         <v>145802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123875</v>
+        <v>123184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170115</v>
+        <v>170856</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09914524484047808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08423537059289175</v>
+        <v>0.08376490886774127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1156781286974346</v>
+        <v>0.1161821124174365</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>199800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178936</v>
+        <v>176446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223030</v>
+        <v>222892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3520956676492141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.315329113126283</v>
+        <v>0.3109414007013336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.39303278467841</v>
+        <v>0.3927899725977269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -836,19 +836,19 @@
         <v>265434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238934</v>
+        <v>240367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294128</v>
+        <v>294132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2939047464916606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2645629282975583</v>
+        <v>0.266149602109799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3256763649629245</v>
+        <v>0.3256808344591205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -857,19 +857,19 @@
         <v>465233</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>430648</v>
+        <v>428508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>503428</v>
+        <v>499462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.316358974839432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2928408840543829</v>
+        <v>0.2913861568981265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3423314076627651</v>
+        <v>0.3396343534865711</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>144027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121981</v>
+        <v>120965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163885</v>
+        <v>164041</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2538104347909677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.214960759025363</v>
+        <v>0.2131690958505125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2888054420034538</v>
+        <v>0.2890801200477677</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>252</v>
@@ -907,19 +907,19 @@
         <v>261792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233294</v>
+        <v>235174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>290807</v>
+        <v>290249</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2898722734309776</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2583172547952603</v>
+        <v>0.260399624118352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3219996100416797</v>
+        <v>0.3213813080956879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>388</v>
@@ -928,19 +928,19 @@
         <v>405819</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>374752</v>
+        <v>370691</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>439678</v>
+        <v>440729</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2759570312702482</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2548317424360709</v>
+        <v>0.2520704100870019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2989815398882403</v>
+        <v>0.2996964035110538</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>143177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125309</v>
+        <v>124804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166575</v>
+        <v>165642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2523125177662273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2208243388911018</v>
+        <v>0.2199350602476288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2935466382688046</v>
+        <v>0.2919022870589774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>298</v>
@@ -978,19 +978,19 @@
         <v>310556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279798</v>
+        <v>281789</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>338576</v>
+        <v>338852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3438670499392654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3098092037211534</v>
+        <v>0.3120146680888586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3748924729094373</v>
+        <v>0.3751979406287446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>444</v>
@@ -999,19 +999,19 @@
         <v>453733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>418139</v>
+        <v>418107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>492149</v>
+        <v>492970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3085387490498417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2843346874138312</v>
+        <v>0.2843133168890918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3346618179028498</v>
+        <v>0.3352200076131092</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>132213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113158</v>
+        <v>111437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154123</v>
+        <v>155749</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1263061890078979</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1081025157537706</v>
+        <v>0.1064591025165438</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1472380961864195</v>
+        <v>0.1487910910420026</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>79</v>
@@ -1124,19 +1124,19 @@
         <v>80180</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>65483</v>
+        <v>63246</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>99030</v>
+        <v>99382</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07830991518276444</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06395577686330893</v>
+        <v>0.06177084640813614</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0967199820628758</v>
+        <v>0.09706422006714045</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>209</v>
@@ -1145,19 +1145,19 @@
         <v>212393</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>188672</v>
+        <v>188719</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>245793</v>
+        <v>241050</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1025732187763659</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09111728836053262</v>
+        <v>0.09114016198086441</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1187036661569039</v>
+        <v>0.1164130712721413</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>425347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>394326</v>
+        <v>394482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>460247</v>
+        <v>459941</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4063452720986738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3767106057297557</v>
+        <v>0.3768594895767868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4396859500888521</v>
+        <v>0.4393941961658708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -1195,19 +1195,19 @@
         <v>319755</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>292938</v>
+        <v>291188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>352530</v>
+        <v>349417</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3122964330078936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2861051859870688</v>
+        <v>0.2843959660289598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3443065579306322</v>
+        <v>0.3412661035590235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>732</v>
@@ -1216,19 +1216,19 @@
         <v>745102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>701614</v>
+        <v>699263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>793032</v>
+        <v>790708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3598404474411646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3388382989619197</v>
+        <v>0.337702856271271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3829877087261017</v>
+        <v>0.3818654390714755</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>287849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257337</v>
+        <v>260852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315404</v>
+        <v>319596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2749898139002229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2458407659591587</v>
+        <v>0.2491986502110222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3013140749234946</v>
+        <v>0.3053190845803347</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>307</v>
@@ -1266,19 +1266,19 @@
         <v>317962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289317</v>
+        <v>289299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347522</v>
+        <v>348887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3105448219972089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2825679869156022</v>
+        <v>0.2825505861748731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3394160745012908</v>
+        <v>0.3407485690054534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>583</v>
@@ -1287,19 +1287,19 @@
         <v>605810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563288</v>
+        <v>564605</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649358</v>
+        <v>650463</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2925708859605664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2720349630904319</v>
+        <v>0.2726711890023624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3136020263901533</v>
+        <v>0.3141355951538419</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>201354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176708</v>
+        <v>177278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>227491</v>
+        <v>231011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1923587249932054</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1688136745648664</v>
+        <v>0.1693582614479929</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2173283344351718</v>
+        <v>0.2206909347211763</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>297</v>
@@ -1337,19 +1337,19 @@
         <v>305986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>278775</v>
+        <v>277751</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>337621</v>
+        <v>334358</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2988488298121331</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2722721930019791</v>
+        <v>0.2712723245189501</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3297458031232914</v>
+        <v>0.3265583906595086</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>498</v>
@@ -1358,19 +1358,19 @@
         <v>507340</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>467593</v>
+        <v>471076</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>545168</v>
+        <v>551094</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2450154478219032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.225819922159661</v>
+        <v>0.2275019053771262</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.263284135120854</v>
+        <v>0.2661462594222569</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>144605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123253</v>
+        <v>122307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167293</v>
+        <v>167854</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1334027982266261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.113704946509293</v>
+        <v>0.1128325421282682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1543334458588635</v>
+        <v>0.1548510880855749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1483,19 +1483,19 @@
         <v>72149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58121</v>
+        <v>57331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88148</v>
+        <v>90203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07737982806663989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06233466606971202</v>
+        <v>0.06148750502458623</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09453887863351265</v>
+        <v>0.09674342029520948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -1504,19 +1504,19 @@
         <v>216753</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194270</v>
+        <v>190141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249445</v>
+        <v>245726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1074970330952039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09634676435071159</v>
+        <v>0.09429903917224043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1237103376474726</v>
+        <v>0.1218656066327536</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>487527</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>455174</v>
+        <v>454997</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>519721</v>
+        <v>522595</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4497596071011284</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4199132111572227</v>
+        <v>0.4197495810964611</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4794596043302976</v>
+        <v>0.4821114779788735</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>369</v>
@@ -1554,19 +1554,19 @@
         <v>368682</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>339478</v>
+        <v>339846</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>398851</v>
+        <v>402273</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3954143851977476</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3640928897142375</v>
+        <v>0.3644871255068249</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4277700939462497</v>
+        <v>0.4314402955587373</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>849</v>
@@ -1575,19 +1575,19 @@
         <v>856209</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>812936</v>
+        <v>813086</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>905223</v>
+        <v>899740</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4246296550364029</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4031686727492159</v>
+        <v>0.4032430818753142</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4489376009095503</v>
+        <v>0.4462182341155096</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>249529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222937</v>
+        <v>222922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276334</v>
+        <v>280156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2301986186684576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2056671658317938</v>
+        <v>0.2056526356831896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2549275643871199</v>
+        <v>0.2584530496283715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>227</v>
@@ -1625,19 +1625,19 @@
         <v>235322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207679</v>
+        <v>209198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260384</v>
+        <v>264287</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2523849197981867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2227376591477059</v>
+        <v>0.2243659498995503</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2792631779400288</v>
+        <v>0.2834495242943543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>470</v>
@@ -1646,19 +1646,19 @@
         <v>484851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>449875</v>
+        <v>446982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>520864</v>
+        <v>518179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2404578588437006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2231115143010946</v>
+        <v>0.2216770105143768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2583179093880497</v>
+        <v>0.2569865532496121</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>202311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177328</v>
+        <v>176860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230164</v>
+        <v>229855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1866389760037878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1635906750656892</v>
+        <v>0.1631594349982807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2123340800282249</v>
+        <v>0.2120489529457462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>253</v>
@@ -1696,19 +1696,19 @@
         <v>256242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>228681</v>
+        <v>228700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>282844</v>
+        <v>282480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2748208669374259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2452617111553283</v>
+        <v>0.2452823990196945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3033521734347773</v>
+        <v>0.3029622333513657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -1717,19 +1717,19 @@
         <v>458553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418665</v>
+        <v>423285</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>496951</v>
+        <v>493422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2274154530246926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2076333918856159</v>
+        <v>0.2099243824186689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2464586764798923</v>
+        <v>0.2447084888299798</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>67357</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52641</v>
+        <v>53119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84403</v>
+        <v>83510</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1775161680550501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.138733091353323</v>
+        <v>0.1399936429792308</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2224421384358065</v>
+        <v>0.2200887066694404</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1842,19 +1842,19 @@
         <v>37955</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28775</v>
+        <v>27637</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50543</v>
+        <v>50501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1339621280371315</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1015597540612561</v>
+        <v>0.09754628765393916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1783901903477048</v>
+        <v>0.1782417465553696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -1863,19 +1863,19 @@
         <v>105312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87333</v>
+        <v>86968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125863</v>
+        <v>127248</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1588972167459814</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1317711570925092</v>
+        <v>0.1312198828698268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.189906656504136</v>
+        <v>0.1919952078274221</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>158888</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138948</v>
+        <v>139331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178877</v>
+        <v>179742</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.418743503992285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3661920666033054</v>
+        <v>0.3672016359922024</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4714256533456548</v>
+        <v>0.4737057082348216</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -1913,19 +1913,19 @@
         <v>113986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>98109</v>
+        <v>98550</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>129616</v>
+        <v>131211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4023156206975684</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3462753963838948</v>
+        <v>0.3478317888933813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4574813404262528</v>
+        <v>0.4631090180860816</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -1934,19 +1934,19 @@
         <v>272874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>247781</v>
+        <v>249136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298029</v>
+        <v>296495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4117207350585753</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3738600771243786</v>
+        <v>0.3759047284240006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4496746731891547</v>
+        <v>0.4473609853094256</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>92949</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77016</v>
+        <v>77839</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>110801</v>
+        <v>110804</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2449653918897818</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2029723080350972</v>
+        <v>0.20514314160921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2920134358505905</v>
+        <v>0.2920215121683647</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -1984,19 +1984,19 @@
         <v>66105</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53464</v>
+        <v>53337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>79857</v>
+        <v>82319</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2333171545473183</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1887003286527364</v>
+        <v>0.1882515114789623</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2818542713961028</v>
+        <v>0.2905455422102283</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>157</v>
@@ -2005,19 +2005,19 @@
         <v>159054</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137970</v>
+        <v>134985</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>181946</v>
+        <v>180272</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2399858776167872</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.208173556177601</v>
+        <v>0.2036695310303274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2745260602865912</v>
+        <v>0.272000046459541</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>60245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46701</v>
+        <v>48453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74978</v>
+        <v>76189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1587749360628831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1230783043749214</v>
+        <v>0.1276974685282709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1976019571773498</v>
+        <v>0.2007929542918938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2055,19 +2055,19 @@
         <v>65280</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53074</v>
+        <v>51915</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80900</v>
+        <v>79247</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2304050967179817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1873257801441416</v>
+        <v>0.1832346432986422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2855379656943471</v>
+        <v>0.2797020644957461</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -2076,19 +2076,19 @@
         <v>125525</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104661</v>
+        <v>106100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>146501</v>
+        <v>147969</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1893961705786562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1579156731487335</v>
+        <v>0.160086863590497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2210446221583626</v>
+        <v>0.2232601485709685</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>424629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>384294</v>
+        <v>387426</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>466237</v>
+        <v>464865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1379726609812709</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1248666804670122</v>
+        <v>0.1258844552493942</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1514920514253554</v>
+        <v>0.1510465127712654</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>251</v>
@@ -2201,19 +2201,19 @@
         <v>255630</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>225606</v>
+        <v>229316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>286379</v>
+        <v>290619</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08134017012364429</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0717867222228453</v>
+        <v>0.0729671044167247</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09112409828173949</v>
+        <v>0.09247346948893864</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>662</v>
@@ -2222,19 +2222,19 @@
         <v>680259</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>630191</v>
+        <v>629805</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>731918</v>
+        <v>733169</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1093600626203771</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1013109071480834</v>
+        <v>0.1012489329596524</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1176648843205904</v>
+        <v>0.1178659505695493</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1271561</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1216221</v>
+        <v>1213662</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1331960</v>
+        <v>1326538</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4131621897906007</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3951809624463314</v>
+        <v>0.3943495349662384</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4327875575621627</v>
+        <v>0.4310255620515768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1053</v>
@@ -2272,19 +2272,19 @@
         <v>1067857</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1015463</v>
+        <v>1014570</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1118026</v>
+        <v>1119761</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3397863539218044</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3231145859388527</v>
+        <v>0.3228306161069872</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3557497319869326</v>
+        <v>0.3563017969963849</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2301</v>
@@ -2293,19 +2293,19 @@
         <v>2339418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2267476</v>
+        <v>2252958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2416020</v>
+        <v>2415323</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3760903024461648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3645246754300088</v>
+        <v>0.3621908010124061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3884049549199242</v>
+        <v>0.3882929703256342</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>774354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>730234</v>
+        <v>729994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>826825</v>
+        <v>824780</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2516071376085922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.237271462289239</v>
+        <v>0.2371935952050689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2686563870314939</v>
+        <v>0.2679917285950336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>851</v>
@@ -2343,19 +2343,19 @@
         <v>881181</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>835040</v>
+        <v>829599</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>934684</v>
+        <v>932993</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2803868071999916</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2657052176381895</v>
+        <v>0.2639737234076584</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2974113845709634</v>
+        <v>0.2968732424166896</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1598</v>
@@ -2364,19 +2364,19 @@
         <v>1655535</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1581387</v>
+        <v>1596376</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1722621</v>
+        <v>1727892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2661475739289389</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2542275235051218</v>
+        <v>0.2566370378783955</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2769325696808421</v>
+        <v>0.2777799474841083</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>607087</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>564078</v>
+        <v>564284</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>654613</v>
+        <v>655351</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1972580116195363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1832832736593013</v>
+        <v>0.1833500603884487</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2127003149396471</v>
+        <v>0.2129400011050775</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>911</v>
@@ -2414,19 +2414,19 @@
         <v>938064</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>884214</v>
+        <v>890104</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>986732</v>
+        <v>994882</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2984866687545597</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2813521402405072</v>
+        <v>0.283226238661695</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3139727484974275</v>
+        <v>0.3165658722115607</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1519</v>
@@ -2435,19 +2435,19 @@
         <v>1545151</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1479269</v>
+        <v>1480921</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1613590</v>
+        <v>1615014</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2484020610045192</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2378106768056027</v>
+        <v>0.2380763443349042</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.259404487541439</v>
+        <v>0.2596334373731802</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>42440</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30690</v>
+        <v>31268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55953</v>
+        <v>55610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04135363021026459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02990388740411449</v>
+        <v>0.03046725827235025</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05451999863024901</v>
+        <v>0.05418625678106104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2800,19 +2800,19 @@
         <v>34995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24414</v>
+        <v>24929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48437</v>
+        <v>47576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03168383697427736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02210382602240617</v>
+        <v>0.02257051609556501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04385398644428729</v>
+        <v>0.04307454898487412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -2821,19 +2821,19 @@
         <v>77435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62829</v>
+        <v>61205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98272</v>
+        <v>95472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03634125284460828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02948644314738693</v>
+        <v>0.02872419150122868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04612023520573404</v>
+        <v>0.04480634206108818</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>87125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71119</v>
+        <v>70104</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109702</v>
+        <v>106833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08489373549532114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0692975910394419</v>
+        <v>0.06830915920485234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1068924705272526</v>
+        <v>0.1040975329492172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -2871,19 +2871,19 @@
         <v>64039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49443</v>
+        <v>48280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82834</v>
+        <v>80461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05798009678600096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04476536991372407</v>
+        <v>0.04371184989044736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07499670496713849</v>
+        <v>0.07284894881118455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -2892,19 +2892,19 @@
         <v>151164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129509</v>
+        <v>128414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177794</v>
+        <v>178049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0709429394232813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06078022837849554</v>
+        <v>0.06026607645233822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08344087148660774</v>
+        <v>0.08356066076959812</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>111134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90840</v>
+        <v>92800</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131114</v>
+        <v>135258</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1082882549342908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08851398616688154</v>
+        <v>0.090423968860762</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1277567181567768</v>
+        <v>0.1317946598133717</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>94</v>
@@ -2942,19 +2942,19 @@
         <v>100609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82112</v>
+        <v>82308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>121414</v>
+        <v>122622</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09109017860260318</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07434358360753103</v>
+        <v>0.07452118617915857</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1099268602618089</v>
+        <v>0.1110202335716834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>201</v>
@@ -2963,19 +2963,19 @@
         <v>211743</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>184510</v>
+        <v>183659</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>239770</v>
+        <v>240174</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09937356085200522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08659262053881074</v>
+        <v>0.08619362266397258</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1125269281023636</v>
+        <v>0.1127166220737302</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>785581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>757057</v>
+        <v>756746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>813784</v>
+        <v>813075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7654643793601235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7376706565346766</v>
+        <v>0.7373684121059865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7929450992493529</v>
+        <v>0.792254792446497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>827</v>
@@ -3013,19 +3013,19 @@
         <v>904855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>876812</v>
+        <v>876775</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>930429</v>
+        <v>931500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8192458876371185</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7938565426877338</v>
+        <v>0.7938230694126998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8424002884717722</v>
+        <v>0.8433706443217244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1557</v>
@@ -3034,19 +3034,19 @@
         <v>1690435</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1652682</v>
+        <v>1647723</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1725765</v>
+        <v>1725638</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7933422468801052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.77562388022879</v>
+        <v>0.7732968871811922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8099227383351808</v>
+        <v>0.8098630676221168</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>29340</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20093</v>
+        <v>19940</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40980</v>
+        <v>40926</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03078910344669239</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02108604884228036</v>
+        <v>0.02092466578398307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04300469984784849</v>
+        <v>0.0429481959649623</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -3159,19 +3159,19 @@
         <v>15134</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8742</v>
+        <v>8395</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25860</v>
+        <v>25351</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01419704777306127</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008201107559491638</v>
+        <v>0.007875208544373924</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02425987925883182</v>
+        <v>0.0237825642795598</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -3180,19 +3180,19 @@
         <v>44473</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31410</v>
+        <v>32318</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58178</v>
+        <v>58913</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02202855271088855</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0155580123087313</v>
+        <v>0.01600784620942589</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0288167478109645</v>
+        <v>0.02918096230775206</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>52016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38152</v>
+        <v>38297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67436</v>
+        <v>68675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05458594439375687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04003705033792214</v>
+        <v>0.04018870520966223</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07076784221262353</v>
+        <v>0.07206771365941193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3230,19 +3230,19 @@
         <v>63115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49037</v>
+        <v>49623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79738</v>
+        <v>82873</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05920884715452514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04600228913700328</v>
+        <v>0.04655161825301835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07480350927228624</v>
+        <v>0.07774428118617589</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -3251,19 +3251,19 @@
         <v>115131</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93743</v>
+        <v>94025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138025</v>
+        <v>135413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05702682182202884</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04643306111546881</v>
+        <v>0.04657255640880428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0683666848396267</v>
+        <v>0.06707280134668421</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>139740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>119069</v>
+        <v>119969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163621</v>
+        <v>163388</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1466437168754018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1249510899881578</v>
+        <v>0.1258961512276831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1717045380386205</v>
+        <v>0.171459843549652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -3301,19 +3301,19 @@
         <v>140846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119737</v>
+        <v>119685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165388</v>
+        <v>165732</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1321294289281967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.112326983984622</v>
+        <v>0.1122782949571633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1551529324190944</v>
+        <v>0.1554759133659772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>267</v>
@@ -3322,19 +3322,19 @@
         <v>280586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>248990</v>
+        <v>250129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>312067</v>
+        <v>317364</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1389802206542775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1233302201815707</v>
+        <v>0.1238940897308796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1545733031660118</v>
+        <v>0.1571969537400263</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>731828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>706578</v>
+        <v>705467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>758321</v>
+        <v>757726</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.767981235284149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7414841920359302</v>
+        <v>0.7403177992345231</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7957831068756818</v>
+        <v>0.7951592571592276</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>787</v>
@@ -3372,19 +3372,19 @@
         <v>846874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>817217</v>
+        <v>819044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>871120</v>
+        <v>871322</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7944646761442169</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7666432868284956</v>
+        <v>0.7683571797291454</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8172102952591013</v>
+        <v>0.817399536179226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1475</v>
@@ -3393,19 +3393,19 @@
         <v>1578702</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1541433</v>
+        <v>1535617</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1616211</v>
+        <v>1615911</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7819644048128052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7635042873414483</v>
+        <v>0.7606234950888832</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8005436164437673</v>
+        <v>0.800395187328367</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>14540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8324</v>
+        <v>8263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23441</v>
+        <v>24089</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01691042208214191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009680722656517432</v>
+        <v>0.009609775761127979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02726106402143982</v>
+        <v>0.02801553682704193</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -3518,19 +3518,19 @@
         <v>8933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4829</v>
+        <v>4286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16452</v>
+        <v>15832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01075242134905072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005811933157097954</v>
+        <v>0.005159491563295368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01980250264518735</v>
+        <v>0.01905664569629239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -3539,19 +3539,19 @@
         <v>23474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15136</v>
+        <v>15636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35301</v>
+        <v>35390</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01388434396394605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008952944276461072</v>
+        <v>0.009248406627871351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02088023410158854</v>
+        <v>0.02093303316017016</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>49838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>37714</v>
+        <v>36844</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>66218</v>
+        <v>65394</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05796138324434864</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04386150982346424</v>
+        <v>0.04284960867546202</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07701112832925423</v>
+        <v>0.07605264439578364</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -3589,19 +3589,19 @@
         <v>33079</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22418</v>
+        <v>22871</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44759</v>
+        <v>45803</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03981661789894714</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02698384711922733</v>
+        <v>0.02752921692347015</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05387549823060714</v>
+        <v>0.05513126450264508</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>80</v>
@@ -3610,19 +3610,19 @@
         <v>82918</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>67547</v>
+        <v>65316</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>100657</v>
+        <v>100615</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04904493783432096</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03995317132233323</v>
+        <v>0.03863367014189593</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05953738247623836</v>
+        <v>0.05951279465579941</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>136030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114265</v>
+        <v>114684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158220</v>
+        <v>159056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1582011521787103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1328882613779753</v>
+        <v>0.1333759142931887</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1840079451703164</v>
+        <v>0.1849799959476217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -3660,19 +3660,19 @@
         <v>80293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63862</v>
+        <v>64003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98462</v>
+        <v>98133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09664645436547491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07686849831428867</v>
+        <v>0.07703832503724846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1185148612632759</v>
+        <v>0.1181191178678808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -3681,19 +3681,19 @@
         <v>216323</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>186575</v>
+        <v>189576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>244050</v>
+        <v>246563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1279528082439919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1103568399642479</v>
+        <v>0.1121321642357838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1443527365280047</v>
+        <v>0.1458391042238424</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>659445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>631122</v>
+        <v>633283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>682647</v>
+        <v>684770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7669270424947991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7339873942607238</v>
+        <v>0.7365004256696909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7939108598876462</v>
+        <v>0.79637908432044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>661</v>
@@ -3731,19 +3731,19 @@
         <v>708489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>687792</v>
+        <v>688215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>729597</v>
+        <v>729476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8527845063865273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8278723848299719</v>
+        <v>0.8283815615682002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8781913627119801</v>
+        <v>0.8780458837564918</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1276</v>
@@ -3752,19 +3752,19 @@
         <v>1367934</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1334254</v>
+        <v>1334170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1397747</v>
+        <v>1400153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8091179099577411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7891968158913606</v>
+        <v>0.7891471103067745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8267522236549554</v>
+        <v>0.8281754277582232</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>5662</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2554</v>
+        <v>2005</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12037</v>
+        <v>11722</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01196383939812939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005396097180913075</v>
+        <v>0.0042367577707722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02543469779024026</v>
+        <v>0.02476803975304766</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3877,19 +3877,19 @@
         <v>9230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4221</v>
+        <v>4074</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16871</v>
+        <v>16550</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02206967154413395</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01009356103992579</v>
+        <v>0.009740605244837594</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04034002512624956</v>
+        <v>0.03957246337836064</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -3898,19 +3898,19 @@
         <v>14892</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8668</v>
+        <v>8996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24910</v>
+        <v>24477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01670479723309197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009722782005501102</v>
+        <v>0.01009080926061156</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02794223352960752</v>
+        <v>0.02745651595538227</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>19293</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12443</v>
+        <v>12555</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30437</v>
+        <v>31438</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04076677587959422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02629136101765954</v>
+        <v>0.02652930153726383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06431392643916065</v>
+        <v>0.06642912464139318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -3948,19 +3948,19 @@
         <v>16459</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9885</v>
+        <v>9749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26551</v>
+        <v>27269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03935439855515933</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02363574951873139</v>
+        <v>0.02331043007501282</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06348527936656423</v>
+        <v>0.06520330716143165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -3969,19 +3969,19 @@
         <v>35752</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25804</v>
+        <v>24552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50175</v>
+        <v>48504</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0401041860754631</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02894492123817656</v>
+        <v>0.02754068763211608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05628348008575845</v>
+        <v>0.05440839116932433</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>39670</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29193</v>
+        <v>29564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54082</v>
+        <v>53450</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.083824321389667</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06168464779274754</v>
+        <v>0.06247013383229252</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1142761912965899</v>
+        <v>0.1129412880381296</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -4019,19 +4019,19 @@
         <v>35802</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24260</v>
+        <v>24317</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50685</v>
+        <v>48290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08560588015896559</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05800842189962718</v>
+        <v>0.05814549254947628</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1211930129843452</v>
+        <v>0.1154657717197917</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -4040,19 +4040,19 @@
         <v>75472</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60027</v>
+        <v>59938</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>96652</v>
+        <v>96654</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08466010560651566</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06733452289138547</v>
+        <v>0.06723498581818188</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1084190148003563</v>
+        <v>0.1084202456379735</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>408630</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>391660</v>
+        <v>391999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>421609</v>
+        <v>422260</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8634450633326094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8275879257655697</v>
+        <v>0.8283030717796396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8908698465664163</v>
+        <v>0.8922460019327657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -4090,19 +4090,19 @@
         <v>356727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>338646</v>
+        <v>340998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>370703</v>
+        <v>371577</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8529700497417412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8097378885155577</v>
+        <v>0.8153608052134232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8863881711803893</v>
+        <v>0.8884790144394004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>691</v>
@@ -4111,19 +4111,19 @@
         <v>765355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>740705</v>
+        <v>742767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>785021</v>
+        <v>786933</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8585309110849293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8308795180571062</v>
+        <v>0.8331922430264302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8805909235602457</v>
+        <v>0.8827355204738652</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>91983</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>73019</v>
+        <v>74681</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110974</v>
+        <v>111751</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02776987811567988</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02204464508851149</v>
+        <v>0.02254649016533251</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03350351604155143</v>
+        <v>0.03373796666317964</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -4236,19 +4236,19 @@
         <v>68291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52527</v>
+        <v>53485</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86171</v>
+        <v>86121</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0199712629776556</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01536123216772357</v>
+        <v>0.01564136000953615</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02519999156242634</v>
+        <v>0.02518540091175569</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -4257,19 +4257,19 @@
         <v>160274</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135697</v>
+        <v>135955</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>186488</v>
+        <v>185936</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02380849659778948</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02015764902630867</v>
+        <v>0.02019596289825987</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02770257472910777</v>
+        <v>0.0276206445398741</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>208272</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180393</v>
+        <v>181126</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>237873</v>
+        <v>238351</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06287824227337534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0544613570277277</v>
+        <v>0.05468253360361999</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07181466788757011</v>
+        <v>0.07195896176481451</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -4307,19 +4307,19 @@
         <v>176692</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>151446</v>
+        <v>150840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206131</v>
+        <v>202294</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05167214642252787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04428913908319443</v>
+        <v>0.04411201205250247</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06028146782922521</v>
+        <v>0.05915931263991308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>366</v>
@@ -4328,19 +4328,19 @@
         <v>384964</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>349199</v>
+        <v>347158</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>427692</v>
+        <v>426269</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0571859981754698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05187307468442681</v>
+        <v>0.05156999333253855</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06353321064381215</v>
+        <v>0.0633218126864294</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>426574</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>389028</v>
+        <v>389392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>467856</v>
+        <v>467357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1287844963332476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1174490461065099</v>
+        <v>0.117559075721896</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1412474392160138</v>
+        <v>0.1410968017540245</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>333</v>
@@ -4378,19 +4378,19 @@
         <v>357550</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>321981</v>
+        <v>323547</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>396686</v>
+        <v>395491</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1045627188640697</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.094160825458554</v>
+        <v>0.0946187131434144</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1160077779477198</v>
+        <v>0.1156583539975349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>747</v>
@@ -4399,19 +4399,19 @@
         <v>784124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>733687</v>
+        <v>735128</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>839760</v>
+        <v>843915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.116480811653513</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1089884680455622</v>
+        <v>0.1092024571173432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1247454332037811</v>
+        <v>0.1253627055214138</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>2585483</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2539991</v>
+        <v>2538005</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2638393</v>
+        <v>2634547</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7805673832776971</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7668333360951792</v>
+        <v>0.7662336819406278</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7965411196304953</v>
+        <v>0.7953800025613916</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2598</v>
@@ -4449,19 +4449,19 @@
         <v>2816944</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2770784</v>
+        <v>2772187</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2860237</v>
+        <v>2865704</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8237938717357468</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8102945379648887</v>
+        <v>0.8107049338896495</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8364545542270198</v>
+        <v>0.8380534286557098</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4999</v>
@@ -4470,19 +4470,19 @@
         <v>5402427</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5334234</v>
+        <v>5323764</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5464819</v>
+        <v>5465288</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8025246935732276</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7923946489477718</v>
+        <v>0.790839420840671</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8117929888699091</v>
+        <v>0.811862677240704</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>74104</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58034</v>
+        <v>56857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93231</v>
+        <v>93074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06641029337563775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05200861680632245</v>
+        <v>0.05095426159006117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08355166470979007</v>
+        <v>0.08341110016282213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -4835,19 +4835,19 @@
         <v>68689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53576</v>
+        <v>53322</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86773</v>
+        <v>85952</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05531963683585201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04314807118582102</v>
+        <v>0.04294413748880971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06988433409197198</v>
+        <v>0.06922309969286101</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -4856,19 +4856,19 @@
         <v>142792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121198</v>
+        <v>121940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168229</v>
+        <v>168821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06056900255207089</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05140947373513769</v>
+        <v>0.05172402038902768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07135868582634936</v>
+        <v>0.07160974213903572</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>118515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98843</v>
+        <v>99579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141001</v>
+        <v>141113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1062114855368524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08858156645657538</v>
+        <v>0.0892412999102345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1263626262672651</v>
+        <v>0.1264630059888262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -4906,19 +4906,19 @@
         <v>127631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108337</v>
+        <v>107824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150959</v>
+        <v>152641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1027898046748829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0872515762275934</v>
+        <v>0.08683813350081522</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1215778459665012</v>
+        <v>0.1229322135291226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -4927,19 +4927,19 @@
         <v>246146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217082</v>
+        <v>218608</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273505</v>
+        <v>277376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1044093349654685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09208087097350161</v>
+        <v>0.09272827329599717</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1160141417158346</v>
+        <v>0.1176560727004983</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>204037</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178035</v>
+        <v>175073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234979</v>
+        <v>230894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1828541916715437</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1595517776128343</v>
+        <v>0.1568976404202066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2105840635341895</v>
+        <v>0.2069235264294772</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -4977,19 +4977,19 @@
         <v>154675</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132252</v>
+        <v>132344</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180780</v>
+        <v>179681</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1245703590239324</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1065119196006648</v>
+        <v>0.1065857673362445</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1455946720020626</v>
+        <v>0.1447094674970458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>333</v>
@@ -4998,19 +4998,19 @@
         <v>358712</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>325103</v>
+        <v>324112</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>398033</v>
+        <v>396375</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1521569272142516</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1379009110149847</v>
+        <v>0.1374804253540681</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1688360432652587</v>
+        <v>0.1681327504875086</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>719188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>687484</v>
+        <v>683544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>751562</v>
+        <v>750609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6445240294159661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6161113717980684</v>
+        <v>0.6125803763635723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6735370766718997</v>
+        <v>0.6726824367194314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>836</v>
@@ -5048,19 +5048,19 @@
         <v>890674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>857702</v>
+        <v>860257</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>919930</v>
+        <v>923834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7173201994653328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6907657958004376</v>
+        <v>0.6928237459234545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7408821114624322</v>
+        <v>0.7440263781004527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1528</v>
@@ -5069,19 +5069,19 @@
         <v>1609862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1563295</v>
+        <v>1562910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1653134</v>
+        <v>1653865</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.682864735268209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6631121436943249</v>
+        <v>0.662948967282501</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7012198429409672</v>
+        <v>0.7015297820057931</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>26016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17169</v>
+        <v>16892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37844</v>
+        <v>36980</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02937021517310708</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01938181622998957</v>
+        <v>0.01906988881389283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04272257722917203</v>
+        <v>0.04174775283330308</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -5194,19 +5194,19 @@
         <v>30178</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20737</v>
+        <v>20869</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43165</v>
+        <v>42657</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03098736248282132</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02129333657075409</v>
+        <v>0.02142902478096423</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04432318578182879</v>
+        <v>0.04380170869575155</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -5215,19 +5215,19 @@
         <v>56194</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42009</v>
+        <v>42411</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71461</v>
+        <v>71133</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03021708201010988</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02258952555907474</v>
+        <v>0.02280552409966024</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03842671994690997</v>
+        <v>0.03825035135523323</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>79567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63689</v>
+        <v>64078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97998</v>
+        <v>100231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08982427117998672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07189903411987464</v>
+        <v>0.07233841551305042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1106315796636883</v>
+        <v>0.1131528069614352</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -5265,19 +5265,19 @@
         <v>63927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49574</v>
+        <v>48921</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80788</v>
+        <v>80061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06564210167330534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05090325918975899</v>
+        <v>0.05023351827973103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08295476181167785</v>
+        <v>0.08220807971067035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -5286,19 +5286,19 @@
         <v>143494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122778</v>
+        <v>123626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170156</v>
+        <v>170606</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07716056560476132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06602106338434501</v>
+        <v>0.06647673555921454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09149720118180701</v>
+        <v>0.09173957977308606</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>151504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131025</v>
+        <v>127900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175379</v>
+        <v>172795</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1710350381940738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1479168014161791</v>
+        <v>0.1443884120855479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1979885666439941</v>
+        <v>0.1950716047368835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -5336,19 +5336,19 @@
         <v>169828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145676</v>
+        <v>143368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>194620</v>
+        <v>194127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1743838687698349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1495833288100841</v>
+        <v>0.1472139930143523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.199840624300781</v>
+        <v>0.1993339984356254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>308</v>
@@ -5357,19 +5357,19 @@
         <v>321332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>287260</v>
+        <v>289777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>354801</v>
+        <v>355932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1727887519963459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1544671779438354</v>
+        <v>0.1558208594345823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.190785813070111</v>
+        <v>0.1913942060805548</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>628718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>600271</v>
+        <v>599792</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>653629</v>
+        <v>655539</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7097704754528323</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6776555472047652</v>
+        <v>0.6771147857494219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.737893042226333</v>
+        <v>0.7400492605619278</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>667</v>
@@ -5407,19 +5407,19 @@
         <v>709943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>682040</v>
+        <v>682462</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>738238</v>
+        <v>740162</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7289866670740385</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7003352564542463</v>
+        <v>0.7007682651094691</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7580405740063316</v>
+        <v>0.7600157200732507</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1282</v>
@@ -5428,19 +5428,19 @@
         <v>1338662</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1300975</v>
+        <v>1296981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1378442</v>
+        <v>1374119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7198336003887829</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6995682960231856</v>
+        <v>0.6974205895135049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7412246232086773</v>
+        <v>0.7388999329379036</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>15441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8452</v>
+        <v>8607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26613</v>
+        <v>25964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01920263211833955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0105111005134854</v>
+        <v>0.01070303536146763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03309493007230617</v>
+        <v>0.03228800981848845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5553,19 +5553,19 @@
         <v>10648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5141</v>
+        <v>5025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18580</v>
+        <v>18972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01422120012690822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00686578420172797</v>
+        <v>0.006711353879377458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0248160942480567</v>
+        <v>0.02533918133906243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -5574,19 +5574,19 @@
         <v>26089</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16746</v>
+        <v>17073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39055</v>
+        <v>38774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01680078107490152</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01078431750516367</v>
+        <v>0.0109945670983041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02515053591026322</v>
+        <v>0.02496928895574273</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>44796</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33764</v>
+        <v>31239</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60782</v>
+        <v>59537</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05570782922474517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04198868521059469</v>
+        <v>0.03884851096097511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0755868679530363</v>
+        <v>0.07403917593288938</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -5624,19 +5624,19 @@
         <v>27699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17995</v>
+        <v>18710</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39274</v>
+        <v>38907</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03699425733007815</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02403449834558596</v>
+        <v>0.02498870877833632</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05245392390454189</v>
+        <v>0.05196450968835129</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>68</v>
@@ -5645,19 +5645,19 @@
         <v>72495</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>55863</v>
+        <v>54144</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89460</v>
+        <v>88987</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04668487914553637</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0359745628905203</v>
+        <v>0.03486710160014608</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05760995687606579</v>
+        <v>0.05730533428407695</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>162228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142582</v>
+        <v>140961</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189529</v>
+        <v>185704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2017443013871651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1773119513556959</v>
+        <v>0.1752963088713208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2356944528331761</v>
+        <v>0.230937874856454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -5695,19 +5695,19 @@
         <v>161522</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139951</v>
+        <v>139380</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186276</v>
+        <v>187545</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2157295621136825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1869193102203635</v>
+        <v>0.1861566948428174</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2487909409619169</v>
+        <v>0.2504854474049902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>308</v>
@@ -5716,19 +5716,19 @@
         <v>323751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>291725</v>
+        <v>294073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>359243</v>
+        <v>358777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2084874453518962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1878637213926443</v>
+        <v>0.1893755394144686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2313437241215014</v>
+        <v>0.231043633838339</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>581663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>551789</v>
+        <v>554670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>603900</v>
+        <v>605947</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7233452372697502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6861948872567756</v>
+        <v>0.6897769235799631</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7509993582995527</v>
+        <v>0.7535449266305183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>514</v>
@@ -5766,19 +5766,19 @@
         <v>548857</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>522175</v>
+        <v>525013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>572625</v>
+        <v>573927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.733054980429331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6974173550358926</v>
+        <v>0.7012078701885774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7647995930202867</v>
+        <v>0.766538133456536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1075</v>
@@ -5787,19 +5787,19 @@
         <v>1130520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1092802</v>
+        <v>1091057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1167171</v>
+        <v>1164134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7280268944276659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7037373631597355</v>
+        <v>0.7026136691770386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7516294163304557</v>
+        <v>0.7496736495182093</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>9071</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4243</v>
+        <v>4342</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17035</v>
+        <v>17300</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01853755501050358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008670029136801592</v>
+        <v>0.008873203173449412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0348120004907906</v>
+        <v>0.03535465418898429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5912,19 +5912,19 @@
         <v>12963</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6707</v>
+        <v>7323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22275</v>
+        <v>22068</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0276465485023646</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01430451468644941</v>
+        <v>0.0156175532255552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04750669243840643</v>
+        <v>0.04706579046707671</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5933,19 +5933,19 @@
         <v>22034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14764</v>
+        <v>13617</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33510</v>
+        <v>33585</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02299484300599006</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01540752784050823</v>
+        <v>0.01421093775183023</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03497163623699876</v>
+        <v>0.0350495428019512</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>39540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28942</v>
+        <v>29051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52279</v>
+        <v>53809</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08080276664264484</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05914552999050939</v>
+        <v>0.05936761804306642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1068371127676866</v>
+        <v>0.109963029092659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -5983,19 +5983,19 @@
         <v>31720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21337</v>
+        <v>21643</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42893</v>
+        <v>42801</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06764938892765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04550569068041148</v>
+        <v>0.04615844258085764</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09147925587154042</v>
+        <v>0.09128309169328981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -6004,19 +6004,19 @@
         <v>71259</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55941</v>
+        <v>55754</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88913</v>
+        <v>88750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07436644712594621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05837971271062829</v>
+        <v>0.05818472122003789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09278992137661982</v>
+        <v>0.09261990493955906</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>73282</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57310</v>
+        <v>57355</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>90606</v>
+        <v>90662</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1497590762850112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1171171686442265</v>
+        <v>0.1172108361533873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1851610661050555</v>
+        <v>0.1852765712400409</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -6054,19 +6054,19 @@
         <v>70056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>55213</v>
+        <v>54377</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>87426</v>
+        <v>86549</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1494111284225124</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1177531574223563</v>
+        <v>0.1159711169127154</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.186456470453075</v>
+        <v>0.1845851486180694</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>134</v>
@@ -6075,19 +6075,19 @@
         <v>143339</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>120479</v>
+        <v>121118</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>167841</v>
+        <v>171568</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1495888155606011</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1257322845060259</v>
+        <v>0.1263991312108931</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1751594074960739</v>
+        <v>0.1790485326736928</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>367442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>347583</v>
+        <v>346195</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>387546</v>
+        <v>385815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7509006020618404</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7103174570651938</v>
+        <v>0.7074803846422248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7919856762519033</v>
+        <v>0.7884474945961472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -6125,19 +6125,19 @@
         <v>354145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>331898</v>
+        <v>334003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>372583</v>
+        <v>370669</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7552929341474729</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7078469547616988</v>
+        <v>0.7123355471944053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.794615877152688</v>
+        <v>0.7905355721590289</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>667</v>
@@ -6146,19 +6146,19 @@
         <v>721587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>695952</v>
+        <v>691288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>749233</v>
+        <v>748188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7530498943074626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.726297335000828</v>
+        <v>0.7214298737391419</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.781901501318904</v>
+        <v>0.780811142421905</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>124632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101878</v>
+        <v>102340</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>148478</v>
+        <v>150662</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03782336826708334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03091775927862808</v>
+        <v>0.03105799688585527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04505997017965198</v>
+        <v>0.04572296746482649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -6271,19 +6271,19 @@
         <v>122477</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103766</v>
+        <v>101706</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145099</v>
+        <v>145818</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03567485753570721</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03022462111195347</v>
+        <v>0.02962465328966585</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04226405121369116</v>
+        <v>0.04247332985219848</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>231</v>
@@ -6292,19 +6292,19 @@
         <v>247110</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>220454</v>
+        <v>217116</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>282103</v>
+        <v>280589</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03672707281428159</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03276531107623803</v>
+        <v>0.0322691557284887</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04192807489226313</v>
+        <v>0.04170301253610863</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>282418</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>250250</v>
+        <v>250119</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>316330</v>
+        <v>316308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08570817651436405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07594587509416766</v>
+        <v>0.07590598245698364</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.095999628729311</v>
+        <v>0.09599299042702564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -6342,19 +6342,19 @@
         <v>250976</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>221176</v>
+        <v>222776</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>284229</v>
+        <v>282890</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07310372800481219</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06442349515125696</v>
+        <v>0.06488948611431805</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0827894596623306</v>
+        <v>0.08239929425758327</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>506</v>
@@ -6363,19 +6363,19 @@
         <v>533395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>491626</v>
+        <v>488673</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>583698</v>
+        <v>580329</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07927665193117291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07306870507290539</v>
+        <v>0.07262975231659863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08675300688722849</v>
+        <v>0.08625235666566146</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>591051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>546260</v>
+        <v>543395</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>636981</v>
+        <v>635936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1793720739835896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1657786915767293</v>
+        <v>0.1649094517985904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.193310702447188</v>
+        <v>0.1929935326888846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>529</v>
@@ -6413,19 +6413,19 @@
         <v>556082</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>513026</v>
+        <v>513735</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>595685</v>
+        <v>600616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1619741283545622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1494328887019279</v>
+        <v>0.149639193751332</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1735095820750795</v>
+        <v>0.1749456699543097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1083</v>
@@ -6434,19 +6434,19 @@
         <v>1147134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1085801</v>
+        <v>1081455</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1214066</v>
+        <v>1211523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.170494627665703</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.161379016455577</v>
+        <v>0.1607329530581807</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1804425354689728</v>
+        <v>0.180064619157683</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>2297012</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2239296</v>
+        <v>2237891</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2352682</v>
+        <v>2352135</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.697096381234963</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6795806601918437</v>
+        <v>0.6791544586751225</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7139911845989748</v>
+        <v>0.7138251738280571</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2345</v>
@@ -6484,19 +6484,19 @@
         <v>2503619</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2458704</v>
+        <v>2449279</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2555097</v>
+        <v>2555197</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7292472861049184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7161645862455733</v>
+        <v>0.713419236409482</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7442415974054374</v>
+        <v>0.7442707794884167</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4552</v>
@@ -6505,19 +6505,19 @@
         <v>4800631</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4720283</v>
+        <v>4726497</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4872065</v>
+        <v>4874653</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7135016475888425</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7015597597128927</v>
+        <v>0.7024833676556547</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7241186986120272</v>
+        <v>0.7245033092368484</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>11463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6475</v>
+        <v>6427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19846</v>
+        <v>19882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02309378552353949</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01304514660036909</v>
+        <v>0.01294784067521427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0399833165272713</v>
+        <v>0.04005545615711371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -6870,19 +6870,19 @@
         <v>13630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8245</v>
+        <v>8441</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21955</v>
+        <v>21344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02203421749890668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01332914472881646</v>
+        <v>0.01364574546369476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03549305442802864</v>
+        <v>0.03450527183440812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -6891,19 +6891,19 @@
         <v>25093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17451</v>
+        <v>17261</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37589</v>
+        <v>36448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02250593527088185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0156519073955164</v>
+        <v>0.01548147064126246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03371428419378486</v>
+        <v>0.03269043392658178</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>38116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26933</v>
+        <v>26300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53372</v>
+        <v>54156</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07679041733039678</v>
+        <v>0.07679041733039675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05425956261848522</v>
+        <v>0.05298584732114741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.107525635428903</v>
+        <v>0.1091040479290695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -6941,19 +6941,19 @@
         <v>22126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15158</v>
+        <v>14637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31086</v>
+        <v>31014</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03577019131986104</v>
+        <v>0.03577019131986103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02450443390589688</v>
+        <v>0.02366343020331577</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05025512645313707</v>
+        <v>0.05013907788282001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -6962,19 +6962,19 @@
         <v>60242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46325</v>
+        <v>46753</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76664</v>
+        <v>78026</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0540323218954921</v>
+        <v>0.05403232189549209</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0415496371345238</v>
+        <v>0.04193327409529275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06876068828127518</v>
+        <v>0.06998244894703874</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>57214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42430</v>
+        <v>41572</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76724</v>
+        <v>74284</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1152663630462476</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08548036277024458</v>
+        <v>0.08375207593110082</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.154571150187316</v>
+        <v>0.1496566733741538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -7012,19 +7012,19 @@
         <v>60486</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47830</v>
+        <v>47048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76105</v>
+        <v>76084</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.097784701890932</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07732344530298906</v>
+        <v>0.07606020585962328</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1230339096465826</v>
+        <v>0.1230003544591411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -7033,19 +7033,19 @@
         <v>117701</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95268</v>
+        <v>98566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>139444</v>
+        <v>141949</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1055675058817075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08544745966314805</v>
+        <v>0.08840572546214356</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1250698330916993</v>
+        <v>0.1273161750814925</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>389573</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>367093</v>
+        <v>368698</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>407308</v>
+        <v>408728</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7848494340998161</v>
+        <v>0.784849434099816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7395619151202882</v>
+        <v>0.742795499144816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8205792100794439</v>
+        <v>0.823440679592666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>727</v>
@@ -7083,19 +7083,19 @@
         <v>522325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>503856</v>
+        <v>506042</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>538138</v>
+        <v>538870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8444108892903003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8145536605978905</v>
+        <v>0.818087223826599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8699751902431635</v>
+        <v>0.8711579062375493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1085</v>
@@ -7104,19 +7104,19 @@
         <v>911897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>883443</v>
+        <v>880964</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>937741</v>
+        <v>936530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8178942369519185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.792373119089684</v>
+        <v>0.7901499050490686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8410740808545635</v>
+        <v>0.8399879836801908</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>9903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3776</v>
+        <v>3475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24477</v>
+        <v>24398</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0103268847559671</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003938090931774577</v>
+        <v>0.003623780188839151</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0255246746716044</v>
+        <v>0.02544271819224081</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -7229,19 +7229,19 @@
         <v>14901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7697</v>
+        <v>7714</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25272</v>
+        <v>24747</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01342155090242577</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006933000053735697</v>
+        <v>0.006948705225879306</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02276338679924311</v>
+        <v>0.02229083509373004</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -7250,19 +7250,19 @@
         <v>24804</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15031</v>
+        <v>15117</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41662</v>
+        <v>39580</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01198732930588614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00726421595894271</v>
+        <v>0.007305921074117129</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02013487538934482</v>
+        <v>0.01912847621019539</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>60365</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44973</v>
+        <v>43964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84926</v>
+        <v>82228</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06294882564774534</v>
+        <v>0.06294882564774536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04689806056366968</v>
+        <v>0.0458465517472334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08856120379492087</v>
+        <v>0.08574763583115165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -7300,19 +7300,19 @@
         <v>39493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29198</v>
+        <v>30042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51953</v>
+        <v>52702</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03557315289581173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02629936014474599</v>
+        <v>0.0270601279302775</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04679627007456855</v>
+        <v>0.04747032038349904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -7321,19 +7321,19 @@
         <v>99858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79784</v>
+        <v>80198</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124885</v>
+        <v>125322</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04826039579131904</v>
+        <v>0.04826039579131905</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03855893434280608</v>
+        <v>0.03875892603938409</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06035584243889365</v>
+        <v>0.06056690792834718</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>116956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93409</v>
+        <v>92573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145803</v>
+        <v>143294</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.12196268708518</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09740829168949788</v>
+        <v>0.09653567826442792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1520445188012104</v>
+        <v>0.1494280830702105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -7371,19 +7371,19 @@
         <v>142591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122944</v>
+        <v>122640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163931</v>
+        <v>164093</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1284364532684231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1107400076491393</v>
+        <v>0.1104660706434626</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.147658407784153</v>
+        <v>0.1478042950441519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>284</v>
@@ -7392,19 +7392,19 @@
         <v>259547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>230271</v>
+        <v>229414</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>296736</v>
+        <v>294180</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1254361893202165</v>
+        <v>0.1254361893202166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1112875973032065</v>
+        <v>0.1108735653329637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1434093018731188</v>
+        <v>0.1421740004485525</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>771725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>736666</v>
+        <v>740138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>798781</v>
+        <v>800304</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8047616025111075</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7682019428421243</v>
+        <v>0.7718231344232706</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8329758364752776</v>
+        <v>0.8345644190147553</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1341</v>
@@ -7442,19 +7442,19 @@
         <v>913220</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>887550</v>
+        <v>888989</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>934628</v>
+        <v>936338</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8225688429333394</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7994466526001501</v>
+        <v>0.8007428356384725</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8418521050392483</v>
+        <v>0.8433918311537595</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2104</v>
@@ -7463,19 +7463,19 @@
         <v>1684945</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1642000</v>
+        <v>1646238</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1722221</v>
+        <v>1720324</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8143160855825783</v>
+        <v>0.8143160855825784</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7935615984682219</v>
+        <v>0.7956094046746113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8323312062044773</v>
+        <v>0.8314144974610251</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>8922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4893</v>
+        <v>4899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16155</v>
+        <v>15866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008535710230945136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004680503387433092</v>
+        <v>0.00468676876817539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01545520303120335</v>
+        <v>0.0151782632220968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -7588,19 +7588,19 @@
         <v>8163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3788</v>
+        <v>3910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17159</v>
+        <v>16976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007814517537067094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003626709895638937</v>
+        <v>0.00374282055175415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01642697178036815</v>
+        <v>0.01625158102034236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -7609,19 +7609,19 @@
         <v>17085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10562</v>
+        <v>10196</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28380</v>
+        <v>28205</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008175235635815245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005054025692257589</v>
+        <v>0.00487877099074446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01357952034164762</v>
+        <v>0.01349597979143766</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>68871</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>51031</v>
+        <v>52428</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>90044</v>
+        <v>93906</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06588695929331036</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04881985252943614</v>
+        <v>0.05015629068509407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08614201420627828</v>
+        <v>0.08983643076147521</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>89</v>
@@ -7659,19 +7659,19 @@
         <v>62266</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49838</v>
+        <v>48598</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76049</v>
+        <v>75212</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05960841689256428</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04771006542785884</v>
+        <v>0.04652353698793806</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07280289790270053</v>
+        <v>0.07200168092395816</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>147</v>
@@ -7680,19 +7680,19 @@
         <v>131138</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>110356</v>
+        <v>111417</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>156666</v>
+        <v>158214</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.06274874803697512</v>
+        <v>0.06274874803697514</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05280458177420668</v>
+        <v>0.05331266171044662</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07496366377560823</v>
+        <v>0.07570457128235443</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>161895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135823</v>
+        <v>136307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191692</v>
+        <v>190456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1548796051115155</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1299367885368482</v>
+        <v>0.1304001212573646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1833851009342052</v>
+        <v>0.1822027946234442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>184</v>
@@ -7730,19 +7730,19 @@
         <v>115563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98506</v>
+        <v>100875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132517</v>
+        <v>132768</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1106301753440215</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09430070647361809</v>
+        <v>0.09656922043023979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1268606378058302</v>
+        <v>0.1271009388008184</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>327</v>
@@ -7751,19 +7751,19 @@
         <v>277458</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246499</v>
+        <v>246808</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>315017</v>
+        <v>312059</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1327623604200941</v>
+        <v>0.1327623604200942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1179482804004318</v>
+        <v>0.1180962127135205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1507340727969161</v>
+        <v>0.1493186493789375</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>805608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>774080</v>
+        <v>775833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>836602</v>
+        <v>838891</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7706977253642291</v>
+        <v>0.770697725364229</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7405363236736556</v>
+        <v>0.7422129117425604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8003485817431643</v>
+        <v>0.8025388111888854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1230</v>
@@ -7801,19 +7801,19 @@
         <v>858598</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>835602</v>
+        <v>834121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>879622</v>
+        <v>876590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.821946890226347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7999323843878875</v>
+        <v>0.7985146372634301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8420726742553979</v>
+        <v>0.8391704032601959</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2046</v>
@@ -7822,19 +7822,19 @@
         <v>1664206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1623958</v>
+        <v>1620684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1700111</v>
+        <v>1698353</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7963136559071154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7770549306131238</v>
+        <v>0.7754883636557138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8134936370965213</v>
+        <v>0.8126527208634768</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>12099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5513</v>
+        <v>5806</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25292</v>
+        <v>24917</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.01244022155776306</v>
+        <v>0.01244022155776307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005668434098404702</v>
+        <v>0.005969847173439276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02600453359486461</v>
+        <v>0.02561963262475431</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -7947,19 +7947,19 @@
         <v>8551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4479</v>
+        <v>4634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14924</v>
+        <v>15488</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.009474710022982072</v>
+        <v>0.00947471002298207</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004963274554061266</v>
+        <v>0.005135388925668727</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01653704076804637</v>
+        <v>0.01716235331571033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -7968,19 +7968,19 @@
         <v>20650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33818</v>
+        <v>34106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0110129214676179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006714280945307407</v>
+        <v>0.006951957362067872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01803571498276039</v>
+        <v>0.01818959120682776</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>59845</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44138</v>
+        <v>43652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78839</v>
+        <v>78801</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06153140211561016</v>
+        <v>0.06153140211561017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04538258366859658</v>
+        <v>0.04488208537324109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08106141156812591</v>
+        <v>0.08102237798235637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -8018,19 +8018,19 @@
         <v>39037</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28439</v>
+        <v>28565</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54985</v>
+        <v>54845</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04325579920443533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03151229244737807</v>
+        <v>0.03165216828745334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06092839295949599</v>
+        <v>0.0607733284368396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -8039,19 +8039,19 @@
         <v>98881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79260</v>
+        <v>79299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122689</v>
+        <v>122008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05273535820323889</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04227108400793726</v>
+        <v>0.042292044295972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06543242710974312</v>
+        <v>0.06506965452709182</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>106240</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86643</v>
+        <v>86224</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>130156</v>
+        <v>129696</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1092345907088574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08908524226266293</v>
+        <v>0.08865477516243257</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1338245845601739</v>
+        <v>0.1333523084323638</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>113</v>
@@ -8089,19 +8089,19 @@
         <v>74003</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59255</v>
+        <v>60866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88454</v>
+        <v>90449</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08200172802809742</v>
+        <v>0.08200172802809741</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06565944070218992</v>
+        <v>0.06744515000257964</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09801432429149021</v>
+        <v>0.1002254697356155</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>214</v>
@@ -8110,19 +8110,19 @@
         <v>180243</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>157829</v>
+        <v>155376</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>208210</v>
+        <v>209201</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09612741951654229</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08417350163088001</v>
+        <v>0.08286540241895914</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.111042821696491</v>
+        <v>0.1115714286999173</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>794401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>762101</v>
+        <v>765826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>821158</v>
+        <v>821241</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8167937856177694</v>
+        <v>0.8167937856177695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.783582524783194</v>
+        <v>0.7874124670008594</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8443046739544042</v>
+        <v>0.8443900618258887</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1145</v>
@@ -8160,19 +8160,19 @@
         <v>780868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>759017</v>
+        <v>759816</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>798484</v>
+        <v>796444</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8652677627444851</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8410552320187019</v>
+        <v>0.8419404613006333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8847877200767928</v>
+        <v>0.8825274722239108</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1926</v>
@@ -8181,19 +8181,19 @@
         <v>1575268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1542284</v>
+        <v>1539636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1609579</v>
+        <v>1606804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8401243008126008</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8225328820643952</v>
+        <v>0.8211205962139827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8584226738039723</v>
+        <v>0.8569429201139522</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>42387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29553</v>
+        <v>30189</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60610</v>
+        <v>60196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01220416074629832</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00850880964955123</v>
+        <v>0.008691984350917219</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01745064532485153</v>
+        <v>0.01733154575596963</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -8306,19 +8306,19 @@
         <v>45244</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>33638</v>
+        <v>32657</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>60454</v>
+        <v>61059</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.012308492175864</v>
+        <v>0.01230849217586399</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009151188323783886</v>
+        <v>0.008884310331827095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01644629592656913</v>
+        <v>0.01661098369813081</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>93</v>
@@ -8327,19 +8327,19 @@
         <v>87631</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69032</v>
+        <v>69601</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110767</v>
+        <v>110725</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01225780499485888</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009656183488074585</v>
+        <v>0.009735676295290163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01549406723131008</v>
+        <v>0.01548818173699995</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>227197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>196187</v>
+        <v>193698</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>263291</v>
+        <v>263586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06541432275614308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05648609669440908</v>
+        <v>0.05576942840859059</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07580651488798514</v>
+        <v>0.07589156533810565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>221</v>
@@ -8377,19 +8377,19 @@
         <v>162923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143355</v>
+        <v>141643</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>189421</v>
+        <v>188678</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04432280964530971</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03899939017491046</v>
+        <v>0.03853375497097183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05153158685554859</v>
+        <v>0.0513295759062153</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -8398,19 +8398,19 @@
         <v>390119</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>347919</v>
+        <v>350937</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>433704</v>
+        <v>433007</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05456966763595552</v>
+        <v>0.05456966763595553</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04866667472023754</v>
+        <v>0.04908878705264963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06066630257078399</v>
+        <v>0.06056879007621034</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>442305</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>399299</v>
+        <v>400881</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>488652</v>
+        <v>491688</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.127348207904952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.114965805557094</v>
+        <v>0.1154213227566564</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1406922214834388</v>
+        <v>0.1415663829926317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>565</v>
@@ -8448,19 +8448,19 @@
         <v>392644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>361636</v>
+        <v>360861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>428925</v>
+        <v>429552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1068179331677238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09838227267174626</v>
+        <v>0.09817145563510092</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1166882812618347</v>
+        <v>0.1168588449600308</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>951</v>
@@ -8469,19 +8469,19 @@
         <v>834949</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>780507</v>
+        <v>778912</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>897606</v>
+        <v>891974</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1167921255661472</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1091768076842178</v>
+        <v>0.1089537807073492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1255566160810707</v>
+        <v>0.1247687900154056</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>2761307</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2703138</v>
+        <v>2708470</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2815837</v>
+        <v>2814882</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7950333085926066</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7782855817183847</v>
+        <v>0.7798205239526993</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8107337931870022</v>
+        <v>0.8104588656337409</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4443</v>
@@ -8519,19 +8519,19 @@
         <v>3075011</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3033589</v>
+        <v>3030986</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3113221</v>
+        <v>3111475</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8365507650111025</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8252819689536272</v>
+        <v>0.8245739221083747</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8469457153481599</v>
+        <v>0.8464708838584956</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7161</v>
@@ -8540,19 +8540,19 @@
         <v>5836317</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5762333</v>
+        <v>5770719</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5906645</v>
+        <v>5901665</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8163804018030384</v>
+        <v>0.8163804018030385</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8060314808357584</v>
+        <v>0.8072044800115384</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.826217831613405</v>
+        <v>0.8255212147875792</v>
       </c>
     </row>
     <row r="28">
